--- a/tut05/output/0501ME07.xlsx
+++ b/tut05/output/0501ME07.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="C6" t="n">
         <v>7.5</v>
       </c>
       <c r="D6" t="n">
-        <v>6.914893617021277</v>
+        <v>6.91</v>
       </c>
       <c r="E6" t="n">
-        <v>7.102040816326531</v>
+        <v>7.1</v>
       </c>
       <c r="F6" t="n">
-        <v>7.739130434782608</v>
+        <v>7.74</v>
       </c>
       <c r="G6" t="n">
-        <v>8.434782608695652</v>
+        <v>8.43</v>
       </c>
       <c r="H6" t="n">
         <v>8.800000000000001</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="C8" t="n">
-        <v>7.688172043010753</v>
+        <v>7.69</v>
       </c>
       <c r="D8" t="n">
-        <v>7.428571428571429</v>
+        <v>7.43</v>
       </c>
       <c r="E8" t="n">
-        <v>7.343915343915344</v>
+        <v>7.34</v>
       </c>
       <c r="F8" t="n">
-        <v>7.421276595744681</v>
+        <v>7.42</v>
       </c>
       <c r="G8" t="n">
-        <v>7.587188612099644</v>
+        <v>7.59</v>
       </c>
       <c r="H8" t="n">
-        <v>7.738317757009346</v>
+        <v>7.74</v>
       </c>
       <c r="I8" t="n">
-        <v>7.85595567867036</v>
+        <v>7.86</v>
       </c>
     </row>
   </sheetData>
